--- a/excel/reporte_productos.xlsx
+++ b/excel/reporte_productos.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>Reporte de productos en Excel</t>
   </si>
@@ -47,106 +47,124 @@
     <t>precio</t>
   </si>
   <si>
-    <t>A FOLIC</t>
+    <t>AB Ambromox</t>
+  </si>
+  <si>
+    <t>600 mg</t>
+  </si>
+  <si>
+    <t>Caja Vial</t>
+  </si>
+  <si>
+    <t>Bois</t>
+  </si>
+  <si>
+    <t>AER INH</t>
+  </si>
+  <si>
+    <t>Genérico</t>
+  </si>
+  <si>
+    <t>ACI Basic</t>
+  </si>
+  <si>
+    <t>400 mg + 30 mg / 10</t>
+  </si>
+  <si>
+    <t>Frasco x 150 mL</t>
+  </si>
+  <si>
+    <t>A Menarini</t>
+  </si>
+  <si>
+    <t>Intravenoso</t>
+  </si>
+  <si>
+    <t>Vitaminas</t>
+  </si>
+  <si>
+    <t>Alergizina</t>
   </si>
   <si>
     <t>0.5 mg</t>
   </si>
   <si>
-    <t>Ampolla x 2mL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ABBOT LABORATORIOS S.A.</t>
-  </si>
-  <si>
-    <t>Tabletas</t>
-  </si>
-  <si>
-    <t>Comercial</t>
-  </si>
-  <si>
-    <t>Acetaminofeno</t>
+    <t>Frasco x 60 ML</t>
+  </si>
+  <si>
+    <t>AC Farma</t>
+  </si>
+  <si>
+    <t>Suplementos</t>
+  </si>
+  <si>
+    <t>AMOXIXILINA</t>
+  </si>
+  <si>
+    <t>400 mg + 30 mg / 5</t>
+  </si>
+  <si>
+    <t>Caja sobre x 3g</t>
+  </si>
+  <si>
+    <t>A &amp; C Marvel</t>
+  </si>
+  <si>
+    <t>Liquido Oral</t>
+  </si>
+  <si>
+    <t>Medicinas</t>
+  </si>
+  <si>
+    <t>Amplicina</t>
+  </si>
+  <si>
+    <t>500 mg</t>
+  </si>
+  <si>
+    <t>Vial</t>
+  </si>
+  <si>
+    <t>Asclep</t>
+  </si>
+  <si>
+    <t>Ortopedia</t>
+  </si>
+  <si>
+    <t>ANDREWS TRIPLE ACCION</t>
+  </si>
+  <si>
+    <t>1g + 0.5g</t>
+  </si>
+  <si>
+    <t>Oral</t>
+  </si>
+  <si>
+    <t>ANEURIN</t>
+  </si>
+  <si>
+    <t>1 g + 1 400g + 60 mg / 7.8 g</t>
+  </si>
+  <si>
+    <t>Caja sobre x 7.9g</t>
+  </si>
+  <si>
+    <t>Subcutaneo</t>
+  </si>
+  <si>
+    <t>Captopril</t>
+  </si>
+  <si>
+    <t>200 mg</t>
   </si>
   <si>
     <t>Caja Envase Blister Tabletas</t>
   </si>
   <si>
-    <t>Adlxeramina</t>
-  </si>
-  <si>
-    <t>500 mg/2 mL</t>
-  </si>
-  <si>
-    <t>Caja Envase Blister Tableyas</t>
-  </si>
-  <si>
-    <t>BIOTOSCANA FARMA DE PERÚ S.A.C.</t>
-  </si>
-  <si>
-    <t>Granulados</t>
-  </si>
-  <si>
-    <t>AMOXIXILINA</t>
-  </si>
-  <si>
-    <t>Caja N45</t>
-  </si>
-  <si>
-    <t>IQ FARMA INSTITUTO QUIMIOTERAPICO S.A</t>
-  </si>
-  <si>
-    <t>Barras</t>
-  </si>
-  <si>
-    <t>Sanitarios</t>
-  </si>
-  <si>
-    <t>BlISTER</t>
-  </si>
-  <si>
-    <t>100 mg/2 mL</t>
-  </si>
-  <si>
-    <t>ALCON PHARMACEUTICAL PERU</t>
-  </si>
-  <si>
-    <t>Cápsulas</t>
-  </si>
-  <si>
-    <t>Farmaceuticos</t>
-  </si>
-  <si>
-    <t>CETIRIZINA</t>
-  </si>
-  <si>
-    <t>100 ML</t>
+    <t>AG Farma</t>
   </si>
   <si>
     <t>Tableta</t>
-  </si>
-  <si>
-    <t>Prueba</t>
-  </si>
-  <si>
-    <t>prueba123232</t>
-  </si>
-  <si>
-    <t>Diplofenaco</t>
-  </si>
-  <si>
-    <t>70 ML</t>
-  </si>
-  <si>
-    <t>Inyectables</t>
-  </si>
-  <si>
-    <t>Grageas</t>
-  </si>
-  <si>
-    <t>NUEVO PRODUCTO DE PRUEBA</t>
-  </si>
-  <si>
-    <t>LABORATORIOS BAGÓ</t>
   </si>
 </sst>
 </file>
@@ -535,12 +553,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="29.421387" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="25.85083" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="34.134521" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="34.134521" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="44.703369" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="8.140869" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -580,90 +598,90 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H5">
-        <v>12</v>
-      </c>
-      <c r="I5">
-        <v>3.8</v>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
       </c>
       <c r="I6" s="3">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7">
-        <v>55</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
+      <c r="G7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -671,57 +689,57 @@
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -729,51 +747,51 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -784,31 +802,31 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
       </c>
       <c r="I12" s="3">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
